--- a/Bases_para_trabalhar/familia.xlsx
+++ b/Bases_para_trabalhar/familia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viola\OneDrive\Documentos\CURSOS TECNOLOGIA\UDEMY\PYTHON_PARA_CIENCIA_DE_DADOS\Bases_para_trabalhar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viola\OneDrive\Documentos\ESTUDOS\CURSOS\UDEMY\PYTHON_PARA_CIENCIA_DE_DADOS\Bases_para_trabalhar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C04372-A08A-485B-B1C0-9195074399FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B303BE-C322-4C91-AFD3-3F9AF74AEF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C1DAC61-6474-40B6-B9DA-B22C50514B92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nome</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>EU</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>euuu</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D393C41B-38EC-417F-8437-EF481930DAB0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +540,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
